--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
   </si>
   <si>
     <t>car/car014.png</t>
   </si>
   <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
   </si>
   <si>
     <t>car/car011.png</t>
   </si>
   <si>
-    <t>dog/dog008.png</t>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
   </si>
   <si>
     <t>dog/dog002.png</t>
   </si>
   <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
   </si>
   <si>
     <t>flower/flower023.png</t>
   </si>
   <si>
-    <t>face/face025.png</t>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
   </si>
   <si>
     <t>dog/dog019.png</t>
   </si>
   <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
+    <t>car/car027.png</t>
   </si>
   <si>
     <t>flower/flower028.png</t>
   </si>
   <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
   </si>
   <si>
     <t>flower/flower032.png</t>
   </si>
   <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
     <t>face/face042.png</t>
   </si>
   <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
     <t>face/face039.png</t>
   </si>
   <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
   </si>
   <si>
     <t>dog/dog040.png</t>
   </si>
   <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
   </si>
   <si>
     <t>dog/dog054.png</t>
   </si>
   <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
     <t>face/face051.png</t>
   </si>
   <si>
-    <t>flower/flower052.png</t>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
   </si>
   <si>
     <t>flower/flower060.png</t>
   </si>
   <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
   </si>
   <si>
     <t>dog/dog049.png</t>
   </si>
   <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
     <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.449131933729016</v>
+        <v>1.337432096125952</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.279548425153343</v>
+        <v>1.56476592102114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.296225764861574</v>
+        <v>1.731712332898029</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.227954800073061</v>
+        <v>1.314787760178869</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.509991501851054</v>
+        <v>1.358154680477953</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.535212912216861</v>
+        <v>1.350245830564372</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.483144385543033</v>
+        <v>1.504224322177324</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.606727875150651</v>
+        <v>1.597510672210624</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.674777668815564</v>
+        <v>1.556861837211939</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.445050046763111</v>
+        <v>1.519373357547346</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.545805370463813</v>
+        <v>1.320526333147811</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.548427071722502</v>
+        <v>1.566687227119367</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.490092910825447</v>
+        <v>1.579415478837412</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.590936230895787</v>
+        <v>1.465160265749862</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.524525753603995</v>
+        <v>1.744541971447606</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.32694219654776</v>
+        <v>1.103465388306111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.449201753405154</v>
+        <v>1.591949374256004</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.514866388108065</v>
+        <v>1.435821614144365</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.497400831357119</v>
+        <v>1.443735363541155</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.585706571478659</v>
+        <v>1.45644045775542</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.64830494635411</v>
+        <v>1.546005792150891</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.47540450648953</v>
+        <v>1.465179308893217</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.805695700157588</v>
+        <v>1.560246090711682</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.405873226270405</v>
+        <v>1.54722708280673</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.417935095024308</v>
+        <v>1.048312882682657</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.658966566472066</v>
+        <v>1.591827936088803</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.485949879119451</v>
+        <v>1.424174593527188</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.722447042757343</v>
+        <v>1.738149364820564</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.270428860961097</v>
+        <v>1.7761186118006</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.366165571541193</v>
+        <v>1.453925491197416</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.177028914867371</v>
+        <v>1.23267370896577</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.513563630550198</v>
+        <v>1.4794935334886</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.676302778991293</v>
+        <v>1.566879180691299</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.319999921107567</v>
+        <v>1.537192906625727</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.370894524828377</v>
+        <v>1.379407512790282</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.790573808704163</v>
+        <v>1.550667665059126</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.713553527611272</v>
+        <v>1.681231931976138</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.641766254338996</v>
+        <v>1.479660765553301</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.493022104303184</v>
+        <v>1.743030693468843</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.634466449662689</v>
+        <v>1.521448650662251</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.842675729890169</v>
+        <v>1.452068133962156</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.40132259899499</v>
+        <v>1.538128492927078</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.451374579349383</v>
+        <v>1.422759161671492</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.704845111605846</v>
+        <v>1.581688505864455</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.26879452975352</v>
+        <v>1.446938550662648</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.688331578608568</v>
+        <v>1.664112123921647</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.604505991864883</v>
+        <v>1.687078927118299</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.551403811334877</v>
+        <v>1.592426795825997</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.424771614472657</v>
+        <v>1.463381795788419</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.325777570482267</v>
+        <v>1.611938135455822</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.701449533002344</v>
+        <v>1.178086937096995</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.663695553399386</v>
+        <v>1.375257437841083</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.265050494845333</v>
+        <v>1.449914663555736</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.612780012802866</v>
+        <v>1.323541888677561</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.555534403340511</v>
+        <v>1.310158706148811</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.378059350315246</v>
+        <v>1.429067297920966</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1.433817087502724</v>
+        <v>1.563950367281996</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.44239896361149</v>
+        <v>1.614677225004337</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.345526787145197</v>
+        <v>1.434600304795849</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.432095306050108</v>
+        <v>1.469242554044776</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.719504793507154</v>
+        <v>1.536382906291305</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.504610935783261</v>
+        <v>1.497144158067528</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.284625995031933</v>
+        <v>1.549868667840424</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.675438988364423</v>
+        <v>1.469157642461917</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.602405883959582</v>
+        <v>1.489251202662385</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.348815726681863</v>
+        <v>1.577152118995181</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.666381912276909</v>
+        <v>1.828142806995117</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.562184428148429</v>
+        <v>1.370075478620163</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.287170374707623</v>
+        <v>1.523543307593328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.360957976258485</v>
+        <v>1.593827571447216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.490738507804712</v>
+        <v>1.559159447329398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.767987532316649</v>
+        <v>1.401943064912205</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.430088755133173</v>
+        <v>1.546221388065583</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.313374799216783</v>
+        <v>1.408821191192903</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.513909623777782</v>
+        <v>1.513413342664566</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.619981328911004</v>
+        <v>1.409656838555842</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.399747242495097</v>
+        <v>1.375846093575046</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.601253023306026</v>
+        <v>1.389843504741789</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.768831056193442</v>
+        <v>1.397399070499033</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.645242732098868</v>
+        <v>1.672086365469912</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.574309808423405</v>
+        <v>1.677723416560042</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.505800281211731</v>
+        <v>1.703107778956706</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.603170885677526</v>
+        <v>1.639818667660015</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.349589020378438</v>
+        <v>1.59794094410968</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.521915081714531</v>
+        <v>1.562702985603665</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.525959309790832</v>
+        <v>1.419939675782601</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.378273433803651</v>
+        <v>1.391932713076758</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.459871135672833</v>
+        <v>1.520873649036512</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.353148955166186</v>
+        <v>1.294959938226731</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.655886714630764</v>
+        <v>1.436430392186789</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.57203089097276</v>
+        <v>1.736438906674039</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.437869991371665</v>
+        <v>1.315301347882985</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.509081932102325</v>
+        <v>1.760735865151694</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.260002166409787</v>
+        <v>1.429116820555583</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.593749957904145</v>
+        <v>1.519169962532269</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.641559974481009</v>
+        <v>1.660086464129966</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.375181103740361</v>
+        <v>1.515278025713952</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.6499402705377</v>
+        <v>1.512755252530148</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.695641226775278</v>
+        <v>1.230120257906219</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.488331371061924</v>
+        <v>1.396463801412845</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.224557508125131</v>
+        <v>1.424912969678452</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.468425123190192</v>
+        <v>1.562718247590898</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.521021731856675</v>
+        <v>1.741771545036549</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.436728025181672</v>
+        <v>1.652297560497072</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.615003340917107</v>
+        <v>1.442668521129835</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.579613624309519</v>
+        <v>1.471528986958127</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.718520892579488</v>
+        <v>1.520372466938516</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.57368259602168</v>
+        <v>1.487599618471266</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.082790461208173</v>
+        <v>1.275381372399182</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.637383235394959</v>
+        <v>1.890827050998864</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.677547801623687</v>
+        <v>1.633869397244799</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.273003318825788</v>
+        <v>1.450409787817978</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.370762733217561</v>
+        <v>1.567658152964707</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.214414190535288</v>
+        <v>1.342514079838167</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.384705527087567</v>
+        <v>1.517810400103391</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.656495538243582</v>
+        <v>1.576484100760627</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.474754287365224</v>
+        <v>1.376989022123557</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.466848491985933</v>
+        <v>1.42468744005996</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.489384685931252</v>
+        <v>1.30893493977057</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.568431745195084</v>
+        <v>1.54921241595169</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.630450716291669</v>
+        <v>1.280061942272824</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.460360633741169</v>
+        <v>1.387836942011023</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.485567766561495</v>
+        <v>1.522251358633586</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.457460793711405</v>
+        <v>1.399020703044177</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.438736333500394</v>
+        <v>1.611107842941868</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.45537122444682</v>
+        <v>1.424444262597599</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.822182690498024</v>
+        <v>1.55362451892729</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.329982493992914</v>
+        <v>1.376007054940461</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.592797748359241</v>
+        <v>1.548098805288762</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.36989764021808</v>
+        <v>1.584198098043115</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.293916751977997</v>
+        <v>1.436649792624272</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.215964202538855</v>
+        <v>1.520638581441568</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.846061897503104</v>
+        <v>1.749510234073131</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.449210209103211</v>
+        <v>1.628238281444108</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.444429210324704</v>
+        <v>1.492722678503146</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.684682875613422</v>
+        <v>1.45291985347892</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.500987407054656</v>
+        <v>1.535526161228677</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.598277687256972</v>
+        <v>1.383423771216504</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.624300822510924</v>
+        <v>1.305494149954838</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.855432356407881</v>
+        <v>1.657104890286318</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.505355560192279</v>
+        <v>1.783768088883437</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.519181656228579</v>
+        <v>1.291161569169103</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.387674228999355</v>
+        <v>1.345095426547497</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.467608183461338</v>
+        <v>1.457276607720904</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.81916985132004</v>
+        <v>1.529076385573268</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.577558484086073</v>
+        <v>1.528749631046913</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.341656404022599</v>
+        <v>1.28581655608728</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.811350014761846</v>
+        <v>1.435494674980159</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.387821802488387</v>
+        <v>1.620872098750672</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.596597763155182</v>
+        <v>1.598245304748167</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.244692638563133</v>
+        <v>1.36693580468545</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.33167904882712</v>
+        <v>1.676290230181332</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.510489785997861</v>
+        <v>1.791063573929578</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.344406350164677</v>
+        <v>1.627409129440615</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.467163657126918</v>
+        <v>1.761206593379924</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.511336480078098</v>
+        <v>1.412932634955437</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.45151808025193</v>
+        <v>1.558112642681415</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.377382963570612</v>
+        <v>1.518902103586866</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.676101952214082</v>
+        <v>1.673938994934985</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.650694002491989</v>
+        <v>1.439111836801331</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.425324841035416</v>
+        <v>1.158270111352454</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.186660331306559</v>
+        <v>1.322703737370233</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.243240092975664</v>
+        <v>1.437238188418557</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.26462827482032</v>
+        <v>1.571368584687813</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.209930559618408</v>
+        <v>1.383310986744137</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.4997754433695</v>
+        <v>1.563911275366231</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.750558154702938</v>
+        <v>1.468382444872706</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.521578739092663</v>
+        <v>1.451521888761262</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.585117773255083</v>
+        <v>1.655828115223082</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.26084574195942</v>
+        <v>1.526257185008196</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.389767035304383</v>
+        <v>1.501387778187084</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.481952790185828</v>
+        <v>1.513832445603715</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.652053809399751</v>
+        <v>1.397771036974513</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.44277665213275</v>
+        <v>1.664805015403913</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.622605174265587</v>
+        <v>1.58303447441059</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.3737729653274</v>
+        <v>1.47834216537676</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.640831482311126</v>
+        <v>1.297392975012061</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.38270970147137</v>
+        <v>1.46164550250702</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.73772041009477</v>
+        <v>1.43488396845457</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.545864280262899</v>
+        <v>1.572371579620999</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.440108551818625</v>
+        <v>1.42693076165058</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.376396915082026</v>
+        <v>1.838912153280192</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.378800950571836</v>
+        <v>1.341458472538433</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.527198906441623</v>
+        <v>1.219308764918183</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.429796956922369</v>
+        <v>1.535467038795405</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.734143382964908</v>
+        <v>1.658446050786786</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.392339564823846</v>
+        <v>1.288655406494033</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.659492201779489</v>
+        <v>1.641384162018729</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.868927412398635</v>
+        <v>1.422977761460128</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.645726401726948</v>
+        <v>1.400901464468769</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.492500290227083</v>
+        <v>1.65599305479784</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.736077902505488</v>
+        <v>1.655079511967302</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.598117289659751</v>
+        <v>1.309811271802422</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.576904173348759</v>
+        <v>1.511073130895711</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.356922796390797</v>
+        <v>1.542447032692907</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.574790260539436</v>
+        <v>1.492014734913796</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.512019138615846</v>
+        <v>1.677292061025488</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.450547253486928</v>
+        <v>1.439189765629428</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.417011322568056</v>
+        <v>1.179646936058883</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.593069233255308</v>
+        <v>1.363933126553446</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.726221660714535</v>
+        <v>1.594442100531346</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.480860114664662</v>
+        <v>1.613772238461533</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.358439505723085</v>
+        <v>1.455817530875978</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.703225457623405</v>
+        <v>1.560227676036562</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.673282128886901</v>
+        <v>1.455386060581167</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.343519947004146</v>
+        <v>1.674409444306189</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.582172467112737</v>
+        <v>1.733701781381397</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.306108555936059</v>
+        <v>1.523750342416003</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.803142292865183</v>
+        <v>1.322752732770109</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.255471028156629</v>
+        <v>1.632895913627951</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.553625010635544</v>
+        <v>1.423415804902197</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.446355731931271</v>
+        <v>1.410750436789681</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.500468754360496</v>
+        <v>1.923145071135629</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.376444352931102</v>
+        <v>1.433163493427375</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.483934582947482</v>
+        <v>1.615167376017321</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1.672479860443731</v>
+        <v>1.464418030893897</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.436872791623737</v>
+        <v>1.40657644572981</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.634040421831743</v>
+        <v>1.300143801431274</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.097674534571004</v>
+        <v>1.391098547407592</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.279821718640716</v>
+        <v>1.541742062576573</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.816093677894564</v>
+        <v>1.537211241518573</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.635104258476163</v>
+        <v>1.527151675411567</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.551900985074061</v>
+        <v>1.548060157984858</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.448143349603585</v>
+        <v>1.50360513824648</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.553468539705998</v>
+        <v>1.640399887385709</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.412630507584673</v>
+        <v>1.45384839324488</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.570184636490872</v>
+        <v>1.534466227742486</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.265155589160931</v>
+        <v>1.399593168646188</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.511680232183106</v>
+        <v>1.570039208692819</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.566690667459852</v>
+        <v>1.351704465933918</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.431750346465444</v>
+        <v>1.541338406327339</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.671881920848726</v>
+        <v>1.875456164552113</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.48764849080841</v>
+        <v>1.481917607201727</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.558846281425742</v>
+        <v>1.416544288278141</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.448508553373621</v>
+        <v>1.624036465808969</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.659912907408348</v>
+        <v>1.724650306570564</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.586394119290075</v>
+        <v>1.413458911717092</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.58884455328083</v>
+        <v>1.320742044976994</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.459938544475755</v>
+        <v>1.48555321232179</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.590913105876495</v>
+        <v>1.292080370651783</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.284291634814121</v>
+        <v>1.436663771891634</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.410505134293633</v>
+        <v>1.445575028473792</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.60868947560932</v>
+        <v>1.689531341746553</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.410136429352034</v>
+        <v>1.494035410904205</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.493803446439308</v>
+        <v>1.538435633133601</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.576149772390452</v>
+        <v>1.319313389255854</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.526409116049334</v>
+        <v>1.540790567712506</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.586776625763243</v>
+        <v>1.648562674921067</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.392717659157505</v>
+        <v>1.721816415874657</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.369973218489204</v>
+        <v>1.473674905185845</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.317647702575338</v>
+        <v>1.191841550703975</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.488260174829492</v>
+        <v>1.591689566576711</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.465185471302486</v>
+        <v>1.454780283406102</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.687367343108842</v>
+        <v>1.629806345882257</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.403232604269899</v>
+        <v>1.176734818960789</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.715560024266855</v>
+        <v>1.866479492926991</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.337432096125952</v>
+        <v>1.739497951369659</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.56476592102114</v>
+        <v>1.54853174604158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.731712332898029</v>
+        <v>1.685428991444256</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.314787760178869</v>
+        <v>1.696156271359517</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.358154680477953</v>
+        <v>1.334783958490024</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.350245830564372</v>
+        <v>1.316565296905375</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.504224322177324</v>
+        <v>1.610906446857698</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.597510672210624</v>
+        <v>1.660320885869018</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.556861837211939</v>
+        <v>1.848875058214062</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.519373357547346</v>
+        <v>1.292624766937121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.320526333147811</v>
+        <v>1.286746563250429</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.566687227119367</v>
+        <v>1.420075651005231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1.579415478837412</v>
+        <v>1.65223118409942</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.465160265749862</v>
+        <v>1.617628575889858</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.744541971447606</v>
+        <v>1.691796378544279</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.103465388306111</v>
+        <v>1.527120384258533</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.591949374256004</v>
+        <v>1.13733321096152</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.435821614144365</v>
+        <v>1.591754561496067</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.443735363541155</v>
+        <v>1.618411114603597</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.45644045775542</v>
+        <v>1.695808795064163</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.546005792150891</v>
+        <v>1.767910631243369</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.465179308893217</v>
+        <v>1.43046720747259</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.560246090711682</v>
+        <v>1.386249667623565</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.54722708280673</v>
+        <v>1.416427354593226</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.048312882682657</v>
+        <v>1.46192404876754</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.591827936088803</v>
+        <v>1.795622902460739</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.424174593527188</v>
+        <v>1.397281548199575</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.738149364820564</v>
+        <v>1.561162225180744</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.7761186118006</v>
+        <v>1.345882048058111</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.453925491197416</v>
+        <v>1.585454162030037</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.23267370896577</v>
+        <v>1.456559418366914</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.4794935334886</v>
+        <v>1.886530878123889</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.566879180691299</v>
+        <v>1.474902268785041</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.537192906625727</v>
+        <v>1.435294695341765</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.379407512790282</v>
+        <v>1.35246412362141</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.550667665059126</v>
+        <v>1.387538040282258</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.681231931976138</v>
+        <v>1.414691594798677</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.479660765553301</v>
+        <v>1.438742706588912</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1.743030693468843</v>
+        <v>1.485777601132125</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.521448650662251</v>
+        <v>1.463344070994325</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.452068133962156</v>
+        <v>1.7857982432008</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.538128492927078</v>
+        <v>1.389207921220411</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.422759161671492</v>
+        <v>1.558014891894645</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.581688505864455</v>
+        <v>1.237272211664268</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.446938550662648</v>
+        <v>1.696589696662559</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.664112123921647</v>
+        <v>1.382279035913767</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.687078927118299</v>
+        <v>1.363240582716578</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.592426795825997</v>
+        <v>1.629120839339829</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.463381795788419</v>
+        <v>1.558978340602239</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.611938135455822</v>
+        <v>1.621789813911847</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.178086937096995</v>
+        <v>1.560338761425325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.375257437841083</v>
+        <v>1.767053491851457</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.449914663555736</v>
+        <v>1.670462411083355</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.323541888677561</v>
+        <v>1.395379709594674</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.310158706148811</v>
+        <v>1.550793810764067</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.429067297920966</v>
+        <v>1.39361556730504</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.563950367281996</v>
+        <v>1.402206717089113</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.614677225004337</v>
+        <v>1.476360897137352</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.434600304795849</v>
+        <v>1.640114207119159</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.469242554044776</v>
+        <v>1.535367896918429</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.536382906291305</v>
+        <v>1.396365156649982</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.497144158067528</v>
+        <v>1.298708062018581</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.549868667840424</v>
+        <v>1.385868530073819</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.469157642461917</v>
+        <v>1.314982025393903</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.489251202662385</v>
+        <v>1.569426401255369</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.577152118995181</v>
+        <v>1.262414314457786</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.828142806995117</v>
+        <v>1.530408770889209</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.370075478620163</v>
+        <v>1.428021388432719</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.523543307593328</v>
+        <v>1.924538843951986</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.593827571447216</v>
+        <v>1.812187174011575</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.559159447329398</v>
+        <v>1.515355321203481</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.401943064912205</v>
+        <v>1.438379216636975</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.546221388065583</v>
+        <v>1.4679851819848</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.408821191192903</v>
+        <v>1.294828900948573</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.513413342664566</v>
+        <v>1.648812036197047</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.409656838555842</v>
+        <v>1.364853175707757</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.375846093575046</v>
+        <v>1.551793245426668</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.389843504741789</v>
+        <v>1.738643429011813</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.397399070499033</v>
+        <v>1.504994421843472</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.672086365469912</v>
+        <v>1.285365455151187</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.677723416560042</v>
+        <v>1.606882243697772</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.703107778956706</v>
+        <v>1.566654463191711</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1.639818667660015</v>
+        <v>1.510500246833186</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.59794094410968</v>
+        <v>1.674342842429658</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.562702985603665</v>
+        <v>1.539123835943795</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.419939675782601</v>
+        <v>1.432680010683603</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.391932713076758</v>
+        <v>1.238558866002952</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.520873649036512</v>
+        <v>1.528094188733481</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.294959938226731</v>
+        <v>1.426921298179493</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.436430392186789</v>
+        <v>1.653042046728154</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.736438906674039</v>
+        <v>1.380586361410113</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.315301347882985</v>
+        <v>1.548963455849732</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.760735865151694</v>
+        <v>1.41035883256041</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.429116820555583</v>
+        <v>1.638695036494486</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.519169962532269</v>
+        <v>1.370446487205488</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.660086464129966</v>
+        <v>1.543716973283949</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.515278025713952</v>
+        <v>1.641785671504824</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.512755252530148</v>
+        <v>1.472549347799613</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.230120257906219</v>
+        <v>1.44984126618875</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.396463801412845</v>
+        <v>1.43752501343539</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.424912969678452</v>
+        <v>1.189046904142688</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.562718247590898</v>
+        <v>1.667378908890444</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.741771545036549</v>
+        <v>1.519118706475843</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.652297560497072</v>
+        <v>1.717513891196003</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.442668521129835</v>
+        <v>1.650047022864932</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.471528986958127</v>
+        <v>1.792887848754959</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.520372466938516</v>
+        <v>1.568693764746744</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.487599618471266</v>
+        <v>1.338083692129463</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.275381372399182</v>
+        <v>1.839993998339456</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.890827050998864</v>
+        <v>1.460795018387003</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.633869397244799</v>
+        <v>1.656998340071031</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.450409787817978</v>
+        <v>1.637448960643247</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.567658152964707</v>
+        <v>1.570440012684815</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.342514079838167</v>
+        <v>1.375955001461104</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.517810400103391</v>
+        <v>1.65373892987942</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.576484100760627</v>
+        <v>1.425467552999323</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.376989022123557</v>
+        <v>1.684825694440389</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.42468744005996</v>
+        <v>1.511445310134087</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.30893493977057</v>
+        <v>1.684007153248192</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.54921241595169</v>
+        <v>1.701419772956299</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.280061942272824</v>
+        <v>1.394910849080493</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.387836942011023</v>
+        <v>1.529929849429076</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.522251358633586</v>
+        <v>1.64405904850453</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.399020703044177</v>
+        <v>1.74274050550775</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.611107842941868</v>
+        <v>1.650976436884407</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.424444262597599</v>
+        <v>1.403420068404456</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.55362451892729</v>
+        <v>1.290627624429795</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.376007054940461</v>
+        <v>1.764286682323426</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.548098805288762</v>
+        <v>1.450785239478089</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.584198098043115</v>
+        <v>1.513214214368641</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.436649792624272</v>
+        <v>1.26521346019825</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.520638581441568</v>
+        <v>1.337135889932426</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.749510234073131</v>
+        <v>1.18824362053046</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.628238281444108</v>
+        <v>1.527865200557827</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.492722678503146</v>
+        <v>1.241851420811608</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.45291985347892</v>
+        <v>1.394272896977613</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.535526161228677</v>
+        <v>1.542649102652371</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.383423771216504</v>
+        <v>1.641271666503737</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.305494149954838</v>
+        <v>1.533384837859615</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.657104890286318</v>
+        <v>1.664719834699947</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.783768088883437</v>
+        <v>1.423457991618465</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.291161569169103</v>
+        <v>1.273755514321142</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.345095426547497</v>
+        <v>1.31448319057031</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.457276607720904</v>
+        <v>1.307450094796701</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.529076385573268</v>
+        <v>1.562323038383566</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.528749631046913</v>
+        <v>1.50943906436557</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.28581655608728</v>
+        <v>1.557897502672894</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.435494674980159</v>
+        <v>1.453481221655516</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.620872098750672</v>
+        <v>1.500999420495741</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.598245304748167</v>
+        <v>1.367836124953077</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.36693580468545</v>
+        <v>1.647841729747918</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.676290230181332</v>
+        <v>1.636004120367362</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.791063573929578</v>
+        <v>1.594611218346916</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.627409129440615</v>
+        <v>1.522859902024531</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.761206593379924</v>
+        <v>1.963297113734623</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.412932634955437</v>
+        <v>1.298648169577678</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.558112642681415</v>
+        <v>1.320228671187997</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.518902103586866</v>
+        <v>1.604881031954003</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.673938994934985</v>
+        <v>1.458218885181602</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.439111836801331</v>
+        <v>1.417485234944564</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.158270111352454</v>
+        <v>1.464545469152865</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.322703737370233</v>
+        <v>1.500735225990246</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.437238188418557</v>
+        <v>1.573719152968132</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.571368584687813</v>
+        <v>1.487856588205829</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.383310986744137</v>
+        <v>1.545508424345711</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.563911275366231</v>
+        <v>1.366269668598716</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.468382444872706</v>
+        <v>1.342278623928659</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.451521888761262</v>
+        <v>1.130417932236135</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.655828115223082</v>
+        <v>1.625380542176169</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.526257185008196</v>
+        <v>1.687054360812727</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.501387778187084</v>
+        <v>1.451817412934433</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.513832445603715</v>
+        <v>1.357859805487618</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.397771036974513</v>
+        <v>1.598494075573286</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.664805015403913</v>
+        <v>1.650737309108949</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.58303447441059</v>
+        <v>1.51046891404873</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.47834216537676</v>
+        <v>1.358981071300283</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1.297392975012061</v>
+        <v>1.65477927546916</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.46164550250702</v>
+        <v>1.36250281817976</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.43488396845457</v>
+        <v>1.659602555685031</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.572371579620999</v>
+        <v>1.454627732633144</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.42693076165058</v>
+        <v>1.477660277960637</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.838912153280192</v>
+        <v>1.645518074646231</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.341458472538433</v>
+        <v>1.436423765575169</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.219308764918183</v>
+        <v>1.489432477927378</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.535467038795405</v>
+        <v>1.42307565520887</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.658446050786786</v>
+        <v>1.417542505429092</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.288655406494033</v>
+        <v>1.567622533271145</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.641384162018729</v>
+        <v>1.55470600763799</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.422977761460128</v>
+        <v>1.548752553485589</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.400901464468769</v>
+        <v>1.687542868369754</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.65599305479784</v>
+        <v>1.553778057063467</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.655079511967302</v>
+        <v>1.379304310696022</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.309811271802422</v>
+        <v>1.250104896692283</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.511073130895711</v>
+        <v>1.416409612645532</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.542447032692907</v>
+        <v>1.326856883700667</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.492014734913796</v>
+        <v>1.486119092376485</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.677292061025488</v>
+        <v>1.373852872533285</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.439189765629428</v>
+        <v>1.603737022831342</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.179646936058883</v>
+        <v>1.602224384493196</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.363933126553446</v>
+        <v>1.694642426045942</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.594442100531346</v>
+        <v>1.654684606317949</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.613772238461533</v>
+        <v>1.323444118328011</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.455817530875978</v>
+        <v>1.548347194084505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.560227676036562</v>
+        <v>1.602567091575987</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.455386060581167</v>
+        <v>1.495115872646859</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.674409444306189</v>
+        <v>1.891489298445642</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.733701781381397</v>
+        <v>1.676264222766735</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.523750342416003</v>
+        <v>1.403046248301257</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.322752732770109</v>
+        <v>1.351808505843371</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.632895913627951</v>
+        <v>1.269554996470071</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.423415804902197</v>
+        <v>1.63054468991231</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.410750436789681</v>
+        <v>1.612715294303497</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.923145071135629</v>
+        <v>1.564561307951162</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.433163493427375</v>
+        <v>1.594845784864455</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.615167376017321</v>
+        <v>1.58267046814109</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.464418030893897</v>
+        <v>1.32979790100865</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.40657644572981</v>
+        <v>1.515809666685948</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.300143801431274</v>
+        <v>1.471570949027416</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.391098547407592</v>
+        <v>1.471983719513649</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.541742062576573</v>
+        <v>1.420175250756846</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.537211241518573</v>
+        <v>1.571070649423529</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.527151675411567</v>
+        <v>1.476332456253419</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.548060157984858</v>
+        <v>1.378368519117627</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.50360513824648</v>
+        <v>1.340131324792612</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.640399887385709</v>
+        <v>1.298022654160518</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.45384839324488</v>
+        <v>1.500088107909646</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.534466227742486</v>
+        <v>1.40392746625144</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.399593168646188</v>
+        <v>1.769172734113948</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.570039208692819</v>
+        <v>1.402952318268926</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.351704465933918</v>
+        <v>1.437262356755737</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.541338406327339</v>
+        <v>1.453201617435908</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.875456164552113</v>
+        <v>1.566134447545245</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.481917607201727</v>
+        <v>1.557172472872774</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.416544288278141</v>
+        <v>1.350186691659203</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.624036465808969</v>
+        <v>1.5507585047938</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.724650306570564</v>
+        <v>1.744125115720116</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.413458911717092</v>
+        <v>1.534642565797504</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.320742044976994</v>
+        <v>1.378428566463334</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.48555321232179</v>
+        <v>1.461901363735766</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.292080370651783</v>
+        <v>1.641993934155791</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.436663771891634</v>
+        <v>1.254177124090249</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.445575028473792</v>
+        <v>1.532703385951526</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.689531341746553</v>
+        <v>1.4945814394741</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.494035410904205</v>
+        <v>1.526531294525971</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.538435633133601</v>
+        <v>1.686230628913993</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.319313389255854</v>
+        <v>1.702775330341088</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.540790567712506</v>
+        <v>1.818381352559972</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.648562674921067</v>
+        <v>1.566082896167128</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>1.721816415874657</v>
+        <v>1.34321221916838</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.473674905185845</v>
+        <v>1.26922603419604</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.191841550703975</v>
+        <v>1.590265715453576</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.591689566576711</v>
+        <v>1.285864739489767</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.454780283406102</v>
+        <v>1.817826236988844</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.629806345882257</v>
+        <v>1.438439546223384</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.176734818960789</v>
+        <v>1.730062389285818</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.866479492926991</v>
+        <v>1.565634845375196</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
   </si>
   <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
   </si>
   <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.739497951369659</v>
+        <v>1.248801755311357</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.54853174604158</v>
+        <v>1.595870146366989</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.685428991444256</v>
+        <v>1.226052597718969</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.696156271359517</v>
+        <v>1.516891324360445</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.334783958490024</v>
+        <v>1.338362273249719</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.316565296905375</v>
+        <v>1.625681716556766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.610906446857698</v>
+        <v>1.509350543035181</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.660320885869018</v>
+        <v>1.657438785506773</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.848875058214062</v>
+        <v>1.500116714246434</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.292624766937121</v>
+        <v>1.462720425739703</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.286746563250429</v>
+        <v>1.649131179111522</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.420075651005231</v>
+        <v>1.402999838049287</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.65223118409942</v>
+        <v>1.490912493607746</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.617628575889858</v>
+        <v>1.753773256218119</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.691796378544279</v>
+        <v>1.579167692819313</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.527120384258533</v>
+        <v>1.582920128435628</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.13733321096152</v>
+        <v>1.513740469264437</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.591754561496067</v>
+        <v>1.378657550284765</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.618411114603597</v>
+        <v>1.587532753285932</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.695808795064163</v>
+        <v>1.395345898975807</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.767910631243369</v>
+        <v>1.434906467052368</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.43046720747259</v>
+        <v>1.622369302243217</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.386249667623565</v>
+        <v>1.61733508733877</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.416427354593226</v>
+        <v>1.450443932719056</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.46192404876754</v>
+        <v>1.500877646010316</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.795622902460739</v>
+        <v>1.866677671630908</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.397281548199575</v>
+        <v>1.403318086809248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.561162225180744</v>
+        <v>1.482920059329768</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.345882048058111</v>
+        <v>1.521507776692238</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.585454162030037</v>
+        <v>1.644190232779176</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.456559418366914</v>
+        <v>1.403920581998651</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.886530878123889</v>
+        <v>1.697426401776491</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.474902268785041</v>
+        <v>1.675586548649893</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.435294695341765</v>
+        <v>1.475145527735402</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.35246412362141</v>
+        <v>1.444187105503425</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.387538040282258</v>
+        <v>1.456081854381578</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.414691594798677</v>
+        <v>1.322904091475726</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.438742706588912</v>
+        <v>1.542215650390288</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.485777601132125</v>
+        <v>1.717459117832701</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.463344070994325</v>
+        <v>1.618393039848081</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.7857982432008</v>
+        <v>1.388190112868671</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.389207921220411</v>
+        <v>1.505369909138689</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.558014891894645</v>
+        <v>1.51394555786145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.237272211664268</v>
+        <v>1.372271353888541</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.696589696662559</v>
+        <v>1.584755303713213</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.382279035913767</v>
+        <v>1.39879623754218</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.363240582716578</v>
+        <v>1.339069963522989</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.629120839339829</v>
+        <v>1.218643003399987</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.558978340602239</v>
+        <v>1.383616041667122</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.621789813911847</v>
+        <v>1.360802144988877</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.560338761425325</v>
+        <v>1.518313659859372</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.767053491851457</v>
+        <v>1.639478913248618</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.670462411083355</v>
+        <v>1.596564970725319</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.395379709594674</v>
+        <v>1.537800334443642</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.550793810764067</v>
+        <v>1.394887464387468</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.39361556730504</v>
+        <v>1.675649861030848</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.402206717089113</v>
+        <v>1.421034182476801</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.476360897137352</v>
+        <v>1.55614854973841</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.640114207119159</v>
+        <v>1.513737366009989</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.535367896918429</v>
+        <v>1.474963102226302</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.396365156649982</v>
+        <v>1.550907525194091</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.298708062018581</v>
+        <v>1.669252002989385</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.385868530073819</v>
+        <v>1.606415687514702</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.314982025393903</v>
+        <v>1.685924175488146</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.569426401255369</v>
+        <v>1.703747236354136</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.262414314457786</v>
+        <v>1.768918637595319</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.530408770889209</v>
+        <v>1.377593476014731</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.428021388432719</v>
+        <v>1.318678911841732</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.924538843951986</v>
+        <v>1.265558640713665</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.812187174011575</v>
+        <v>1.591943128129396</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.515355321203481</v>
+        <v>1.340495959889231</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.438379216636975</v>
+        <v>1.69261592016584</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.4679851819848</v>
+        <v>1.420801150908656</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.294828900948573</v>
+        <v>1.161765146820658</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.648812036197047</v>
+        <v>1.71533386474685</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.364853175707757</v>
+        <v>1.484496031369949</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.551793245426668</v>
+        <v>1.616965290865588</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.738643429011813</v>
+        <v>1.772099635226451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.504994421843472</v>
+        <v>1.497546407914417</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.285365455151187</v>
+        <v>1.11591885052415</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.606882243697772</v>
+        <v>1.300962322753436</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.566654463191711</v>
+        <v>1.39682337757401</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.510500246833186</v>
+        <v>1.540136152936129</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.674342842429658</v>
+        <v>1.4156022832706</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.539123835943795</v>
+        <v>1.325788633662384</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.432680010683603</v>
+        <v>1.691070064162884</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.238558866002952</v>
+        <v>1.465517652723957</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.528094188733481</v>
+        <v>1.485512406400719</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.426921298179493</v>
+        <v>1.509286727395277</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.653042046728154</v>
+        <v>1.668232709888544</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.380586361410113</v>
+        <v>1.310742308547298</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.548963455849732</v>
+        <v>1.60597266936732</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.41035883256041</v>
+        <v>1.125645372372485</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.638695036494486</v>
+        <v>1.369997844925218</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.370446487205488</v>
+        <v>1.593468632979221</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.543716973283949</v>
+        <v>1.769924653295607</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.641785671504824</v>
+        <v>1.499389265683916</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.472549347799613</v>
+        <v>1.54606781368802</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.44984126618875</v>
+        <v>1.370072499256742</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.43752501343539</v>
+        <v>1.588611890888812</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.189046904142688</v>
+        <v>1.639165081251112</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.667378908890444</v>
+        <v>1.448610155327568</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.519118706475843</v>
+        <v>1.326325097076323</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.717513891196003</v>
+        <v>1.423083019526654</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.650047022864932</v>
+        <v>1.310002866638209</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.792887848754959</v>
+        <v>1.388195437100392</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.568693764746744</v>
+        <v>1.241915840810364</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.338083692129463</v>
+        <v>1.822757137478032</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.839993998339456</v>
+        <v>1.692335325697476</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.460795018387003</v>
+        <v>1.539608160736321</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.656998340071031</v>
+        <v>1.341803134838053</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.637448960643247</v>
+        <v>1.684906635715931</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.570440012684815</v>
+        <v>1.476952662780034</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.375955001461104</v>
+        <v>1.598487568021322</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.65373892987942</v>
+        <v>1.523854944778869</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.425467552999323</v>
+        <v>1.654632840249133</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.684825694440389</v>
+        <v>1.329522368612956</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.511445310134087</v>
+        <v>1.408426005126361</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.684007153248192</v>
+        <v>1.359831780159174</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.701419772956299</v>
+        <v>1.608732655631183</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.394910849080493</v>
+        <v>1.634530806820093</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.529929849429076</v>
+        <v>1.377699629381048</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.64405904850453</v>
+        <v>1.901706017233148</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.74274050550775</v>
+        <v>1.585952490650497</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.650976436884407</v>
+        <v>1.220297599581543</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.403420068404456</v>
+        <v>1.5611297073234</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.290627624429795</v>
+        <v>1.397355788666386</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.764286682323426</v>
+        <v>1.599465352914321</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.450785239478089</v>
+        <v>1.755437224148092</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.513214214368641</v>
+        <v>1.75663481420944</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.26521346019825</v>
+        <v>1.532456974612306</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.337135889932426</v>
+        <v>1.333336355481023</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.18824362053046</v>
+        <v>1.330231813171431</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.527865200557827</v>
+        <v>1.360988396813109</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.241851420811608</v>
+        <v>1.665592376225989</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.394272896977613</v>
+        <v>1.525592355502823</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.542649102652371</v>
+        <v>1.212496631820337</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.641271666503737</v>
+        <v>1.468912846417238</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.533384837859615</v>
+        <v>1.442526572473983</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.664719834699947</v>
+        <v>1.578832277780433</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.423457991618465</v>
+        <v>1.490546893342484</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.273755514321142</v>
+        <v>1.52433111020145</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.31448319057031</v>
+        <v>1.328500323632331</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.307450094796701</v>
+        <v>1.648182730373353</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.562323038383566</v>
+        <v>1.479862841646162</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.50943906436557</v>
+        <v>1.666901195341081</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.557897502672894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.453481221655516</v>
+        <v>1.602412041478547</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.500999420495741</v>
+        <v>1.327774482049694</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.367836124953077</v>
+        <v>1.706740742289405</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.647841729747918</v>
+        <v>1.331995363476071</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.636004120367362</v>
+        <v>1.352080624660361</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.594611218346916</v>
+        <v>1.55247348960766</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.522859902024531</v>
+        <v>1.283411845972922</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.963297113734623</v>
+        <v>1.33117318783849</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.298648169577678</v>
+        <v>1.532364014606312</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.320228671187997</v>
+        <v>1.424024467010194</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.604881031954003</v>
+        <v>1.465716486569214</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.458218885181602</v>
+        <v>1.597043416751855</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.417485234944564</v>
+        <v>1.479271762953313</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.464545469152865</v>
+        <v>1.519044341267304</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.500735225990246</v>
+        <v>1.767083843995416</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.573719152968132</v>
+        <v>1.749295572143471</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.487856588205829</v>
+        <v>1.554798986255321</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.545508424345711</v>
+        <v>1.505626416584619</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.366269668598716</v>
+        <v>1.496633976164972</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.342278623928659</v>
+        <v>1.319512140961014</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.130417932236135</v>
+        <v>1.533988034028881</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.625380542176169</v>
+        <v>1.51046195893189</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.687054360812727</v>
+        <v>1.228243041491058</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.451817412934433</v>
+        <v>1.550295931415435</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.357859805487618</v>
+        <v>1.315861634737798</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.598494075573286</v>
+        <v>1.462595121363256</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.650737309108949</v>
+        <v>1.457649123337912</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.51046891404873</v>
+        <v>1.429811205940505</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.358981071300283</v>
+        <v>1.552677169514575</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.65477927546916</v>
+        <v>1.232780113756818</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.36250281817976</v>
+        <v>1.564771645377321</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.659602555685031</v>
+        <v>1.649938356756913</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.454627732633144</v>
+        <v>1.461024969084818</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.477660277960637</v>
+        <v>1.494351623888609</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.645518074646231</v>
+        <v>1.711756953409852</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.436423765575169</v>
+        <v>1.357898235118323</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.489432477927378</v>
+        <v>1.4284923789824</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.42307565520887</v>
+        <v>1.606961891470593</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.417542505429092</v>
+        <v>1.427167035614606</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.567622533271145</v>
+        <v>1.282529295856455</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.55470600763799</v>
+        <v>1.442400759464658</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.548752553485589</v>
+        <v>1.381940712912945</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.687542868369754</v>
+        <v>1.671988388393662</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.553778057063467</v>
+        <v>1.604358891618429</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.379304310696022</v>
+        <v>1.516815186693312</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.250104896692283</v>
+        <v>1.119014623616616</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.416409612645532</v>
+        <v>1.610652421588966</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.326856883700667</v>
+        <v>1.30311218431787</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.486119092376485</v>
+        <v>1.591811399223259</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.373852872533285</v>
+        <v>1.485175558842731</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.603737022831342</v>
+        <v>1.663173751261153</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.602224384493196</v>
+        <v>1.374538829526688</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.694642426045942</v>
+        <v>1.5426809396773</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.654684606317949</v>
+        <v>1.713763304640405</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.323444118328011</v>
+        <v>1.964508763771408</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.548347194084505</v>
+        <v>1.329528718243284</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.602567091575987</v>
+        <v>1.623430924742139</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.495115872646859</v>
+        <v>1.542837254970634</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.891489298445642</v>
+        <v>1.325818823621958</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.676264222766735</v>
+        <v>1.585249967227163</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.403046248301257</v>
+        <v>1.593550599235479</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.351808505843371</v>
+        <v>1.640491826215009</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.269554996470071</v>
+        <v>1.507413313205585</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.63054468991231</v>
+        <v>1.622758547841069</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.612715294303497</v>
+        <v>1.643559466997589</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.564561307951162</v>
+        <v>1.22965335424021</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.594845784864455</v>
+        <v>1.424265007488309</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.58267046814109</v>
+        <v>1.330344815342884</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.32979790100865</v>
+        <v>1.302445355272947</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.515809666685948</v>
+        <v>1.447967554844131</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.471570949027416</v>
+        <v>1.47008856986185</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.471983719513649</v>
+        <v>1.756580218663484</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.420175250756846</v>
+        <v>1.40366086991571</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.571070649423529</v>
+        <v>1.615831013266507</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.476332456253419</v>
+        <v>1.334095361927244</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.378368519117627</v>
+        <v>1.310718120189313</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.340131324792612</v>
+        <v>1.787366277471337</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.298022654160518</v>
+        <v>1.643106987171685</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.500088107909646</v>
+        <v>1.529381891401246</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.40392746625144</v>
+        <v>1.693564275506652</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.769172734113948</v>
+        <v>1.593382754423625</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.402952318268926</v>
+        <v>1.522146560353171</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.437262356755737</v>
+        <v>1.740686020044449</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.453201617435908</v>
+        <v>1.6236348513598</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.566134447545245</v>
+        <v>1.553681913468836</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.557172472872774</v>
+        <v>1.547908166466375</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.350186691659203</v>
+        <v>1.380555635330994</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.5507585047938</v>
+        <v>1.928522492780155</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.744125115720116</v>
+        <v>1.740657812024222</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.534642565797504</v>
+        <v>1.596435609537785</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.378428566463334</v>
+        <v>1.903154707274082</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.461901363735766</v>
+        <v>1.417164501917478</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.641993934155791</v>
+        <v>1.583760808132196</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.254177124090249</v>
+        <v>1.713807442401438</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.532703385951526</v>
+        <v>1.591461770861785</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.4945814394741</v>
+        <v>1.298111519544644</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.526531294525971</v>
+        <v>1.302240940939423</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.686230628913993</v>
+        <v>1.649695727973635</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.702775330341088</v>
+        <v>1.851499077028844</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.818381352559972</v>
+        <v>1.431888948339195</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.566082896167128</v>
+        <v>1.225989803159904</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>1.34321221916838</v>
+        <v>1.421151712894903</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.26922603419604</v>
+        <v>1.59520501630801</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.590265715453576</v>
+        <v>1.748303275197019</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.285864739489767</v>
+        <v>1.594931341750696</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.817826236988844</v>
+        <v>1.643998119831465</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.438439546223384</v>
+        <v>1.321034645289733</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.730062389285818</v>
+        <v>1.621195715502955</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.565634845375196</v>
+        <v>1.462612754629189</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>face</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
   </si>
   <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>flower/flower035.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
   </si>
   <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
-    <t>flower/flower085.jpg</t>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>dog/dog082.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.248801755311357</v>
+        <v>1.3076538423691</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.595870146366989</v>
+        <v>1.723136067340264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.226052597718969</v>
+        <v>1.472292801991858</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.516891324360445</v>
+        <v>1.777414417109764</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.338362273249719</v>
+        <v>1.474215929424485</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.625681716556766</v>
+        <v>1.285541915786352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.509350543035181</v>
+        <v>1.513522380912856</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.657438785506773</v>
+        <v>1.429705368290007</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.500116714246434</v>
+        <v>1.550071619625035</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.462720425739703</v>
+        <v>1.375886249507053</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.649131179111522</v>
+        <v>1.468882621222146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.402999838049287</v>
+        <v>1.752369666376026</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.490912493607746</v>
+        <v>1.777589146331471</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.753773256218119</v>
+        <v>1.516832394283117</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.579167692819313</v>
+        <v>1.618040741974716</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.582920128435628</v>
+        <v>1.717937094650268</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.513740469264437</v>
+        <v>1.299164530885959</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.378657550284765</v>
+        <v>1.564629845476742</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.587532753285932</v>
+        <v>1.614102279558972</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.395345898975807</v>
+        <v>1.531776651476339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.434906467052368</v>
+        <v>1.476044067728064</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.622369302243217</v>
+        <v>1.720804039736329</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.61733508733877</v>
+        <v>1.516700422211154</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.450443932719056</v>
+        <v>1.607394956551815</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.500877646010316</v>
+        <v>1.34032183349396</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.866677671630908</v>
+        <v>1.339261085629518</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.403318086809248</v>
+        <v>1.820738110976348</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.482920059329768</v>
+        <v>1.391679475506279</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.521507776692238</v>
+        <v>1.40447105182837</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.644190232779176</v>
+        <v>1.602693290440099</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.403920581998651</v>
+        <v>1.561478358785348</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.697426401776491</v>
+        <v>1.851795610683103</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.675586548649893</v>
+        <v>1.637870577205119</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.475145527735402</v>
+        <v>1.254831198511475</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.444187105503425</v>
+        <v>1.764050182607359</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.456081854381578</v>
+        <v>1.301581055858356</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.322904091475726</v>
+        <v>1.293953732039949</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.542215650390288</v>
+        <v>1.244881391197208</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.717459117832701</v>
+        <v>1.562228076799056</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.618393039848081</v>
+        <v>1.565364112818966</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.388190112868671</v>
+        <v>1.663592865030516</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.505369909138689</v>
+        <v>1.234067798627833</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.51394555786145</v>
+        <v>1.355222665633675</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.372271353888541</v>
+        <v>1.37073369687432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.584755303713213</v>
+        <v>1.360804992753108</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1.39879623754218</v>
+        <v>1.457542660781124</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.339069963522989</v>
+        <v>1.518254737000108</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.218643003399987</v>
+        <v>1.532704245915347</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.383616041667122</v>
+        <v>1.607503195261671</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.360802144988877</v>
+        <v>1.453699431757882</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.518313659859372</v>
+        <v>1.442501984754302</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.639478913248618</v>
+        <v>1.657567359495901</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1.596564970725319</v>
+        <v>1.193981069372687</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.537800334443642</v>
+        <v>1.302540862620463</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.394887464387468</v>
+        <v>1.42703541504856</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.675649861030848</v>
+        <v>1.146114363740615</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.421034182476801</v>
+        <v>1.614357084197131</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.55614854973841</v>
+        <v>1.715573915544672</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.513737366009989</v>
+        <v>1.468019388655125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.474963102226302</v>
+        <v>1.420299718686024</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.550907525194091</v>
+        <v>1.329455716389601</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.669252002989385</v>
+        <v>1.515266537597694</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.606415687514702</v>
+        <v>1.532726079556344</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.685924175488146</v>
+        <v>1.61901267838884</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.703747236354136</v>
+        <v>1.773688821076952</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.768918637595319</v>
+        <v>1.468270549401148</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.377593476014731</v>
+        <v>1.594986306573537</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.318678911841732</v>
+        <v>1.443865100564259</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.265558640713665</v>
+        <v>1.346352635521378</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.591943128129396</v>
+        <v>1.2900414810474</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.340495959889231</v>
+        <v>1.601955354741087</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.69261592016584</v>
+        <v>1.758304666900381</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.420801150908656</v>
+        <v>1.433716775324614</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1.161765146820658</v>
+        <v>1.567958560034393</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.71533386474685</v>
+        <v>1.47768347156693</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1.484496031369949</v>
+        <v>1.601689429099994</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.616965290865588</v>
+        <v>1.38776236935931</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.772099635226451</v>
+        <v>1.615740149192654</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.497546407914417</v>
+        <v>1.349454091352252</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.11591885052415</v>
+        <v>1.487262677744294</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.300962322753436</v>
+        <v>1.686123088449241</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.39682337757401</v>
+        <v>1.702188603587367</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.540136152936129</v>
+        <v>1.619267207613227</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.4156022832706</v>
+        <v>1.601844290120416</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.325788633662384</v>
+        <v>1.505757863725285</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.691070064162884</v>
+        <v>1.485852527514485</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.465517652723957</v>
+        <v>1.426181631079043</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.485512406400719</v>
+        <v>1.555425141142564</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.509286727395277</v>
+        <v>1.69659939560767</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.668232709888544</v>
+        <v>1.652531296195715</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.310742308547298</v>
+        <v>1.624724492517453</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.60597266936732</v>
+        <v>1.771192796235545</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.125645372372485</v>
+        <v>1.348363876050523</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.369997844925218</v>
+        <v>1.273001504225937</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.593468632979221</v>
+        <v>1.261931029617154</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.769924653295607</v>
+        <v>1.470032066312771</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.499389265683916</v>
+        <v>1.437805916550977</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.54606781368802</v>
+        <v>1.589497282134222</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1.370072499256742</v>
+        <v>1.627737151533927</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.588611890888812</v>
+        <v>1.400708956986343</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.639165081251112</v>
+        <v>1.68241240801557</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.448610155327568</v>
+        <v>1.276800033954325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.326325097076323</v>
+        <v>1.294400709196581</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.423083019526654</v>
+        <v>1.450865941558995</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.310002866638209</v>
+        <v>1.363129689205805</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.388195437100392</v>
+        <v>1.561756967754545</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.241915840810364</v>
+        <v>1.747323521204298</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.822757137478032</v>
+        <v>1.563692586325212</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.692335325697476</v>
+        <v>1.549555014297244</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.539608160736321</v>
+        <v>1.396083465751877</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.341803134838053</v>
+        <v>1.353704285713283</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.684906635715931</v>
+        <v>1.37511026470259</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.476952662780034</v>
+        <v>1.555977688554863</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.598487568021322</v>
+        <v>1.553887441148385</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.523854944778869</v>
+        <v>1.574078937832261</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.654632840249133</v>
+        <v>1.342596607620229</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.329522368612956</v>
+        <v>1.531018189171828</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.408426005126361</v>
+        <v>1.393044775320359</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.359831780159174</v>
+        <v>1.719496190782437</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.608732655631183</v>
+        <v>1.437874519819169</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.634530806820093</v>
+        <v>1.443091763587266</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.377699629381048</v>
+        <v>1.623698254825371</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.901706017233148</v>
+        <v>1.394864480138012</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.585952490650497</v>
+        <v>1.640932164539241</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.220297599581543</v>
+        <v>1.223239979439117</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.5611297073234</v>
+        <v>1.36930950555014</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.397355788666386</v>
+        <v>1.643120810996304</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.599465352914321</v>
+        <v>1.578571901450016</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.755437224148092</v>
+        <v>1.54694103051162</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.75663481420944</v>
+        <v>1.503803864571691</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.532456974612306</v>
+        <v>1.293632152825416</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.333336355481023</v>
+        <v>1.808104604273228</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.330231813171431</v>
+        <v>1.552498228402428</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.360988396813109</v>
+        <v>1.429717603615787</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.665592376225989</v>
+        <v>1.254055455991818</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.525592355502823</v>
+        <v>1.380967867429263</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.212496631820337</v>
+        <v>1.526618098325028</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.468912846417238</v>
+        <v>1.439260532995469</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.442526572473983</v>
+        <v>1.365774295669467</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.578832277780433</v>
+        <v>1.600608737581225</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.490546893342484</v>
+        <v>1.298444775592591</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.52433111020145</v>
+        <v>1.695790087155943</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.328500323632331</v>
+        <v>1.386920566436076</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.648182730373353</v>
+        <v>1.411273695894015</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.479862841646162</v>
+        <v>1.629967315198987</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.666901195341081</v>
+        <v>1.41790112427915</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>1.415175905090562</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.602412041478547</v>
+        <v>1.521701594917571</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.327774482049694</v>
+        <v>1.451303126336268</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.706740742289405</v>
+        <v>1.465492190958448</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.331995363476071</v>
+        <v>1.457893521210143</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.352080624660361</v>
+        <v>1.478209642213752</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.55247348960766</v>
+        <v>1.580369216347782</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.283411845972922</v>
+        <v>1.406857443296686</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.33117318783849</v>
+        <v>1.311415819782254</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.532364014606312</v>
+        <v>1.565416805964922</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.424024467010194</v>
+        <v>1.359419536539914</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.465716486569214</v>
+        <v>1.637668034006776</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.597043416751855</v>
+        <v>1.691289580850284</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.479271762953313</v>
+        <v>1.500545897016452</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.519044341267304</v>
+        <v>1.405596672521892</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.767083843995416</v>
+        <v>1.576508567297889</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.749295572143471</v>
+        <v>1.60653386336487</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.554798986255321</v>
+        <v>1.720524997484055</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.505626416584619</v>
+        <v>1.538326809347508</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.496633976164972</v>
+        <v>1.806451334501435</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.319512140961014</v>
+        <v>1.619599011587933</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.533988034028881</v>
+        <v>1.439616232456284</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.51046195893189</v>
+        <v>1.425711162276452</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.228243041491058</v>
+        <v>1.312815666293367</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.550295931415435</v>
+        <v>1.638729806511591</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.315861634737798</v>
+        <v>1.300830548868542</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.462595121363256</v>
+        <v>1.712080578800061</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.457649123337912</v>
+        <v>1.768732425450779</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.429811205940505</v>
+        <v>1.57875170889885</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.552677169514575</v>
+        <v>1.341223305241716</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.232780113756818</v>
+        <v>1.461380998888411</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.564771645377321</v>
+        <v>1.165344571490228</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.649938356756913</v>
+        <v>1.482904549093799</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.461024969084818</v>
+        <v>1.557444478385897</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.494351623888609</v>
+        <v>1.455455415962417</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.711756953409852</v>
+        <v>1.428717152391376</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.357898235118323</v>
+        <v>1.585749574708618</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.4284923789824</v>
+        <v>1.551220601101759</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.606961891470593</v>
+        <v>1.665639081148067</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.427167035614606</v>
+        <v>1.353355654832635</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.282529295856455</v>
+        <v>1.514117946764429</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.442400759464658</v>
+        <v>1.614874434518124</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.381940712912945</v>
+        <v>1.605262974465914</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.671988388393662</v>
+        <v>1.738882913610414</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.604358891618429</v>
+        <v>1.829158604177879</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.516815186693312</v>
+        <v>1.433675428835298</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.119014623616616</v>
+        <v>1.373300723864</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.610652421588966</v>
+        <v>1.44676246047378</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.30311218431787</v>
+        <v>1.508863951893115</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.591811399223259</v>
+        <v>1.781166551277813</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.485175558842731</v>
+        <v>1.271963620469185</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.663173751261153</v>
+        <v>1.471557701680555</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.374538829526688</v>
+        <v>1.372706587823607</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.5426809396773</v>
+        <v>1.622655581291227</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.713763304640405</v>
+        <v>1.435716961035709</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.964508763771408</v>
+        <v>1.580770745212065</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.329528718243284</v>
+        <v>1.498177318277058</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.623430924742139</v>
+        <v>1.423420470896266</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.542837254970634</v>
+        <v>1.632813466838972</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.325818823621958</v>
+        <v>1.21245806188083</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.585249967227163</v>
+        <v>1.568518231552527</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.593550599235479</v>
+        <v>1.506389021618077</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.640491826215009</v>
+        <v>1.365288529693345</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.507413313205585</v>
+        <v>1.753284749130712</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.622758547841069</v>
+        <v>1.515674730631741</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.643559466997589</v>
+        <v>1.337870806601201</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.22965335424021</v>
+        <v>1.766270197250551</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.424265007488309</v>
+        <v>1.337100940179642</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.330344815342884</v>
+        <v>1.32551123457101</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.302445355272947</v>
+        <v>1.530699413453609</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.447967554844131</v>
+        <v>1.674583673059856</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.47008856986185</v>
+        <v>1.720503625711195</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.756580218663484</v>
+        <v>1.571912513011552</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.40366086991571</v>
+        <v>1.678432403089222</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.615831013266507</v>
+        <v>1.379782355016708</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.334095361927244</v>
+        <v>1.405300712157642</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.310718120189313</v>
+        <v>1.689444377509319</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.787366277471337</v>
+        <v>1.295230144988447</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.643106987171685</v>
+        <v>1.585632405900345</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.529381891401246</v>
+        <v>1.443159759527096</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.693564275506652</v>
+        <v>1.286034068645236</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.593382754423625</v>
+        <v>1.733884508084808</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.522146560353171</v>
+        <v>1.771280293224007</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.740686020044449</v>
+        <v>1.54417253061229</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.6236348513598</v>
+        <v>1.536965637019754</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.553681913468836</v>
+        <v>1.733760832425747</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.547908166466375</v>
+        <v>1.578503282108763</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.380555635330994</v>
+        <v>1.433824498096742</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.928522492780155</v>
+        <v>1.683811897107228</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.740657812024222</v>
+        <v>1.615754804370741</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.596435609537785</v>
+        <v>1.625322469474637</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>1.903154707274082</v>
+        <v>1.492021931370202</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.417164501917478</v>
+        <v>1.673945257147621</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.583760808132196</v>
+        <v>1.432226568951666</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.713807442401438</v>
+        <v>1.502140481334468</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.591461770861785</v>
+        <v>1.531321330775777</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.298111519544644</v>
+        <v>1.161118434044433</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.302240940939423</v>
+        <v>1.132196229999977</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.649695727973635</v>
+        <v>1.724644669163691</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.851499077028844</v>
+        <v>1.281250209814627</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.431888948339195</v>
+        <v>1.364619092906908</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.225989803159904</v>
+        <v>1.491709688681492</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.421151712894903</v>
+        <v>1.528501944579016</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.59520501630801</v>
+        <v>1.433686563869518</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.748303275197019</v>
+        <v>1.153597186273616</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.594931341750696</v>
+        <v>1.559558441623594</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.643998119831465</v>
+        <v>1.571642200419142</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.321034645289733</v>
+        <v>1.780967700044471</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.621195715502955</v>
+        <v>1.442836403362034</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.462612754629189</v>
+        <v>1.286256198582026</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
   </si>
   <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>face/face091.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
     <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.3076538423691</v>
+        <v>1.301596914043342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.723136067340264</v>
+        <v>1.216286696255707</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.472292801991858</v>
+        <v>1.419106894693155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.777414417109764</v>
+        <v>1.433301460375471</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.474215929424485</v>
+        <v>1.447327751853845</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.285541915786352</v>
+        <v>1.677218949620467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.513522380912856</v>
+        <v>1.619718091941078</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.429705368290007</v>
+        <v>1.473155946067674</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.550071619625035</v>
+        <v>1.387006102271914</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.375886249507053</v>
+        <v>1.560560756417809</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.468882621222146</v>
+        <v>1.25591878253397</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.752369666376026</v>
+        <v>1.34265515518354</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.777589146331471</v>
+        <v>1.428042286261442</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.516832394283117</v>
+        <v>1.611100893657509</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.618040741974716</v>
+        <v>1.392137904171211</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.717937094650268</v>
+        <v>1.243720315586437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.299164530885959</v>
+        <v>1.640122468830767</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.564629845476742</v>
+        <v>1.718802085431106</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.614102279558972</v>
+        <v>1.625046164565826</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.531776651476339</v>
+        <v>1.338516676970156</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.476044067728064</v>
+        <v>1.326034917726462</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.720804039736329</v>
+        <v>1.259756758132988</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.516700422211154</v>
+        <v>1.381214792475968</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.607394956551815</v>
+        <v>1.616150580803749</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.34032183349396</v>
+        <v>1.492946342666548</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.339261085629518</v>
+        <v>1.55898953549756</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.820738110976348</v>
+        <v>1.413204742394065</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.391679475506279</v>
+        <v>1.569891503818154</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.40447105182837</v>
+        <v>1.276690203768132</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.602693290440099</v>
+        <v>1.53036459974547</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.561478358785348</v>
+        <v>1.539012248522785</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.851795610683103</v>
+        <v>1.453249011702448</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.637870577205119</v>
+        <v>1.658875974132456</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.254831198511475</v>
+        <v>1.575816668835994</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.764050182607359</v>
+        <v>1.672933152921101</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.301581055858356</v>
+        <v>1.618864738790742</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.293953732039949</v>
+        <v>1.385403489235114</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.244881391197208</v>
+        <v>1.654930468502187</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.562228076799056</v>
+        <v>1.676101115741121</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.565364112818966</v>
+        <v>1.501164146017429</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.663592865030516</v>
+        <v>1.562919732145214</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.234067798627833</v>
+        <v>1.43386835706658</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.355222665633675</v>
+        <v>1.498342495886396</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.37073369687432</v>
+        <v>1.097484590446556</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.360804992753108</v>
+        <v>1.380624762832432</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.457542660781124</v>
+        <v>1.27722773915365</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.518254737000108</v>
+        <v>1.254716396253129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.532704245915347</v>
+        <v>1.689759619493538</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.607503195261671</v>
+        <v>1.921476500500802</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.453699431757882</v>
+        <v>1.314558721175259</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.442501984754302</v>
+        <v>1.731273054686346</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.657567359495901</v>
+        <v>1.41941719345628</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.193981069372687</v>
+        <v>1.485996359415803</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.302540862620463</v>
+        <v>1.557646864025539</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.42703541504856</v>
+        <v>1.613355052805187</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.146114363740615</v>
+        <v>1.512956168402093</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.614357084197131</v>
+        <v>1.605175535666279</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.715573915544672</v>
+        <v>1.586678182753458</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.468019388655125</v>
+        <v>1.500114684853653</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.420299718686024</v>
+        <v>1.399307431463891</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.329455716389601</v>
+        <v>1.384214385081521</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.515266537597694</v>
+        <v>1.424645256683838</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.532726079556344</v>
+        <v>1.443232426759092</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.61901267838884</v>
+        <v>1.368902516843698</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.773688821076952</v>
+        <v>1.391780013296972</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.468270549401148</v>
+        <v>1.63875795926062</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.594986306573537</v>
+        <v>1.386080125274599</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.443865100564259</v>
+        <v>1.541607176794177</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.346352635521378</v>
+        <v>1.490376498163335</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.2900414810474</v>
+        <v>1.628451318188898</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.601955354741087</v>
+        <v>1.718075596489476</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.758304666900381</v>
+        <v>1.330389162089761</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.433716775324614</v>
+        <v>1.684662282770986</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.567958560034393</v>
+        <v>1.687955422153142</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.47768347156693</v>
+        <v>1.249888630517567</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.601689429099994</v>
+        <v>1.419837709110038</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.38776236935931</v>
+        <v>1.65076003225895</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.615740149192654</v>
+        <v>1.539447066435093</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.349454091352252</v>
+        <v>1.583649122791788</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.487262677744294</v>
+        <v>1.584310728460852</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.686123088449241</v>
+        <v>1.603814107940008</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.702188603587367</v>
+        <v>1.379828274237467</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.619267207613227</v>
+        <v>1.566620877797631</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.601844290120416</v>
+        <v>1.596875577046791</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.505757863725285</v>
+        <v>1.525561526224985</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.485852527514485</v>
+        <v>1.323577244776914</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.426181631079043</v>
+        <v>1.498573510193018</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.555425141142564</v>
+        <v>1.457157346739925</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.69659939560767</v>
+        <v>1.648763145500824</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.652531296195715</v>
+        <v>1.53142958781647</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.624724492517453</v>
+        <v>1.18733532062662</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.771192796235545</v>
+        <v>1.613754728365122</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.348363876050523</v>
+        <v>1.787861699053966</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.273001504225937</v>
+        <v>1.384340812881393</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.261931029617154</v>
+        <v>1.632051342189912</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.470032066312771</v>
+        <v>1.652173441643113</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.437805916550977</v>
+        <v>1.42634401252884</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.589497282134222</v>
+        <v>1.541802919537208</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.627737151533927</v>
+        <v>1.462351643027272</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.400708956986343</v>
+        <v>1.645805851006256</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.68241240801557</v>
+        <v>1.334658172387482</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.276800033954325</v>
+        <v>1.562186885518995</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.294400709196581</v>
+        <v>1.52717761982231</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.450865941558995</v>
+        <v>1.613669589335866</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.363129689205805</v>
+        <v>1.582645873274369</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.561756967754545</v>
+        <v>1.603366174318633</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.747323521204298</v>
+        <v>1.456726094341044</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.563692586325212</v>
+        <v>1.206126923985048</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.549555014297244</v>
+        <v>1.368898999779718</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.396083465751877</v>
+        <v>1.470308971685244</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.353704285713283</v>
+        <v>1.2029018377087</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.37511026470259</v>
+        <v>1.558712821791603</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.555977688554863</v>
+        <v>1.562610414980159</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.553887441148385</v>
+        <v>1.432462073583354</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.574078937832261</v>
+        <v>1.811891852510286</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.342596607620229</v>
+        <v>1.471885801461862</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.531018189171828</v>
+        <v>1.555621276251374</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.393044775320359</v>
+        <v>1.440111118376517</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.719496190782437</v>
+        <v>1.509713341352446</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.437874519819169</v>
+        <v>1.396669547552374</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.443091763587266</v>
+        <v>1.228750163641941</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.623698254825371</v>
+        <v>1.461786022651518</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.394864480138012</v>
+        <v>1.389584109468972</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.640932164539241</v>
+        <v>1.419464554135561</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.223239979439117</v>
+        <v>1.622386685832747</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.36930950555014</v>
+        <v>1.506655600133612</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.643120810996304</v>
+        <v>1.613745672848095</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.578571901450016</v>
+        <v>1.143830391085662</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.54694103051162</v>
+        <v>1.626392973226628</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.503803864571691</v>
+        <v>1.647605549619274</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.293632152825416</v>
+        <v>1.506578080764867</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.808104604273228</v>
+        <v>1.616253173499072</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.552498228402428</v>
+        <v>1.592672600299569</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.429717603615787</v>
+        <v>1.542591013595707</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.254055455991818</v>
+        <v>1.51095065067515</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.380967867429263</v>
+        <v>1.493479691854468</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.526618098325028</v>
+        <v>1.419447343295474</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.439260532995469</v>
+        <v>1.428230351523639</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.365774295669467</v>
+        <v>1.665783098975554</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.600608737581225</v>
+        <v>1.625222959103114</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.298444775592591</v>
+        <v>1.718372481770294</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.695790087155943</v>
+        <v>1.450661019975525</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.386920566436076</v>
+        <v>1.54885584146375</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.411273695894015</v>
+        <v>1.521466356755465</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.629967315198987</v>
+        <v>1.240563510537599</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.41790112427915</v>
+        <v>1.486448283903217</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.415175905090562</v>
+        <v>1.577464366472099</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.521701594917571</v>
+        <v>1.878921730350501</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.451303126336268</v>
+        <v>1.646754376708787</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.465492190958448</v>
+        <v>1.521254391861719</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.457893521210143</v>
+        <v>1.510887494442032</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.478209642213752</v>
+        <v>1.629996782342733</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.580369216347782</v>
+        <v>1.326291285892767</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.406857443296686</v>
+        <v>1.453226011007821</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.311415819782254</v>
+        <v>1.667091769995698</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.565416805964922</v>
+        <v>1.411661615725016</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.359419536539914</v>
+        <v>1.25664333725537</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.637668034006776</v>
+        <v>1.386694614905498</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.691289580850284</v>
+        <v>1.357033993244213</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.500545897016452</v>
+        <v>1.41915637246298</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1.405596672521892</v>
+        <v>1.61718352191524</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.576508567297889</v>
+        <v>1.810025270837224</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.60653386336487</v>
+        <v>1.357330875886961</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.720524997484055</v>
+        <v>1.68325509347169</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.538326809347508</v>
+        <v>1.837845582894356</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.806451334501435</v>
+        <v>1.430561655849276</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.619599011587933</v>
+        <v>1.481934933619105</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.439616232456284</v>
+        <v>1.418985242429151</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.425711162276452</v>
+        <v>1.140892754374535</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.312815666293367</v>
+        <v>1.43353427073874</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.638729806511591</v>
+        <v>1.483988451105138</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.300830548868542</v>
+        <v>1.545753750757286</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.712080578800061</v>
+        <v>1.706775742825982</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.768732425450779</v>
+        <v>1.465600544985818</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.57875170889885</v>
+        <v>1.740951235078054</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.341223305241716</v>
+        <v>1.596300176342443</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.461380998888411</v>
+        <v>1.491976481726039</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.165344571490228</v>
+        <v>1.49455698928319</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.482904549093799</v>
+        <v>1.722972004093821</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.557444478385897</v>
+        <v>1.254186875014453</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.455455415962417</v>
+        <v>1.744256886445194</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.428717152391376</v>
+        <v>1.467577926520231</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.585749574708618</v>
+        <v>1.588779705472623</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.551220601101759</v>
+        <v>1.5793590144845</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.665639081148067</v>
+        <v>1.502471102054618</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.353355654832635</v>
+        <v>1.513636038678151</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.514117946764429</v>
+        <v>1.422822655360032</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.614874434518124</v>
+        <v>1.031300230578308</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.605262974465914</v>
+        <v>1.751308323980781</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.738882913610414</v>
+        <v>1.456269218705594</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.829158604177879</v>
+        <v>1.626277105156967</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.433675428835298</v>
+        <v>1.659759707153102</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.373300723864</v>
+        <v>1.401536444046674</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.44676246047378</v>
+        <v>1.702603624424301</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.508863951893115</v>
+        <v>1.412620099803884</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.781166551277813</v>
+        <v>1.586006188442352</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.271963620469185</v>
+        <v>1.393207839652872</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.471557701680555</v>
+        <v>1.500248711257335</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.372706587823607</v>
+        <v>1.568802645780052</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.622655581291227</v>
+        <v>1.38408966322393</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.435716961035709</v>
+        <v>1.230657665310521</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.580770745212065</v>
+        <v>1.495190650517824</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.498177318277058</v>
+        <v>1.577492339628318</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.423420470896266</v>
+        <v>1.187824025056192</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>1.632813466838972</v>
+        <v>1.549076550702153</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.21245806188083</v>
+        <v>1.41050271710754</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.568518231552527</v>
+        <v>1.631887044587721</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.506389021618077</v>
+        <v>1.340834184013015</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.365288529693345</v>
+        <v>1.540898973270427</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.753284749130712</v>
+        <v>1.385411197780344</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.515674730631741</v>
+        <v>1.74529256709557</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.337870806601201</v>
+        <v>1.650255133083543</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.766270197250551</v>
+        <v>1.601803128639981</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.337100940179642</v>
+        <v>1.428300040702926</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.32551123457101</v>
+        <v>1.376682948947408</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.530699413453609</v>
+        <v>1.651269974365017</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.674583673059856</v>
+        <v>1.393682196194838</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.720503625711195</v>
+        <v>1.354238115002417</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.571912513011552</v>
+        <v>1.428814461713702</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.678432403089222</v>
+        <v>1.550403023325313</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.379782355016708</v>
+        <v>1.187642394013912</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.405300712157642</v>
+        <v>1.651026549800872</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.689444377509319</v>
+        <v>1.505971060752291</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.295230144988447</v>
+        <v>1.517582301976421</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.585632405900345</v>
+        <v>1.523204723360772</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.443159759527096</v>
+        <v>1.284713326927112</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.286034068645236</v>
+        <v>1.253383955893798</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.733884508084808</v>
+        <v>1.543859862298694</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.771280293224007</v>
+        <v>1.635973743066108</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.54417253061229</v>
+        <v>1.403161625452284</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1.536965637019754</v>
+        <v>1.580548010974642</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.733760832425747</v>
+        <v>1.554823036139335</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.578503282108763</v>
+        <v>1.562068779975846</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.433824498096742</v>
+        <v>1.672585595185617</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.683811897107228</v>
+        <v>1.399695915516139</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.615754804370741</v>
+        <v>1.334930406406774</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.625322469474637</v>
+        <v>1.065099707038071</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.492021931370202</v>
+        <v>1.661701091873334</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.673945257147621</v>
+        <v>1.597912623155905</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.432226568951666</v>
+        <v>1.39991054841263</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.502140481334468</v>
+        <v>1.50041943338149</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.531321330775777</v>
+        <v>1.684663251704915</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.161118434044433</v>
+        <v>1.612619663364947</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.132196229999977</v>
+        <v>1.244878719789301</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.724644669163691</v>
+        <v>1.63608234426253</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.281250209814627</v>
+        <v>1.289905638906913</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.364619092906908</v>
+        <v>1.595732798073577</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.491709688681492</v>
+        <v>1.69220022723613</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.528501944579016</v>
+        <v>1.659886693531452</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.433686563869518</v>
+        <v>1.413968734631731</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.153597186273616</v>
+        <v>1.590449342448808</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.559558441623594</v>
+        <v>1.544829976139394</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.571642200419142</v>
+        <v>1.426804684351938</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.780967700044471</v>
+        <v>1.541923995758703</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.442836403362034</v>
+        <v>1.572618919023418</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.286256198582026</v>
+        <v>1.373903890677123</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/11_localizer.xlsx
+++ b/sequences/11_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
+    <t>face/face053.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.301596914043342</v>
+        <v>1.376848694939767</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.216286696255707</v>
+        <v>1.201823753445516</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.419106894693155</v>
+        <v>1.673660407638326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.433301460375471</v>
+        <v>1.641064831034082</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.447327751853845</v>
+        <v>1.36547380060971</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.677218949620467</v>
+        <v>1.251406591724802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.619718091941078</v>
+        <v>1.839448998272418</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.473155946067674</v>
+        <v>1.413565557280267</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.387006102271914</v>
+        <v>1.562232609663862</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.560560756417809</v>
+        <v>1.484926954452729</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.25591878253397</v>
+        <v>1.520900034426147</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.34265515518354</v>
+        <v>1.616074937442242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.428042286261442</v>
+        <v>1.206704405816036</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.611100893657509</v>
+        <v>1.682363229529292</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.392137904171211</v>
+        <v>1.3418437460309</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.243720315586437</v>
+        <v>1.397527731183632</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.640122468830767</v>
+        <v>1.48397601238572</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.718802085431106</v>
+        <v>1.326516510244486</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.625046164565826</v>
+        <v>1.27405847691006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.338516676970156</v>
+        <v>1.589291834263072</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.326034917726462</v>
+        <v>1.234475465890325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.259756758132988</v>
+        <v>1.337799251330747</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.381214792475968</v>
+        <v>1.062862480088941</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.616150580803749</v>
+        <v>1.494191020252634</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.492946342666548</v>
+        <v>1.610216296948206</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.55898953549756</v>
+        <v>1.472771736599364</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.413204742394065</v>
+        <v>1.676506647785123</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.569891503818154</v>
+        <v>1.700940883098417</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.276690203768132</v>
+        <v>1.756052699029074</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.53036459974547</v>
+        <v>1.82159734952295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.539012248522785</v>
+        <v>1.773551824772768</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.453249011702448</v>
+        <v>1.382377015196291</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.658875974132456</v>
+        <v>1.647349723491212</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.575816668835994</v>
+        <v>1.407408502155606</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.672933152921101</v>
+        <v>1.38551270490694</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.618864738790742</v>
+        <v>1.587780004924291</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.385403489235114</v>
+        <v>1.694015310442437</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.654930468502187</v>
+        <v>1.578520791028798</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.676101115741121</v>
+        <v>1.608952242006845</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.501164146017429</v>
+        <v>1.497049853715565</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.562919732145214</v>
+        <v>1.305552196682476</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.43386835706658</v>
+        <v>1.352710400949929</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.498342495886396</v>
+        <v>1.53163968232873</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.097484590446556</v>
+        <v>1.595110345483249</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.380624762832432</v>
+        <v>1.3539180523474</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.27722773915365</v>
+        <v>1.528409214327991</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1.254716396253129</v>
+        <v>1.309895067729187</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.689759619493538</v>
+        <v>1.274578377438901</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.921476500500802</v>
+        <v>1.526187278487387</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.314558721175259</v>
+        <v>1.848192729599911</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.731273054686346</v>
+        <v>1.636286148621655</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.41941719345628</v>
+        <v>1.841598572635769</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.485996359415803</v>
+        <v>1.298861383881921</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.557646864025539</v>
+        <v>1.360861581413972</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.613355052805187</v>
+        <v>1.545399014488038</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.512956168402093</v>
+        <v>1.560310906625276</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.605175535666279</v>
+        <v>1.523198172508484</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.586678182753458</v>
+        <v>1.480081283657757</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.500114684853653</v>
+        <v>1.468316535541031</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.399307431463891</v>
+        <v>1.379585953213604</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.384214385081521</v>
+        <v>1.628702232971099</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.424645256683838</v>
+        <v>1.284933597743068</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.443232426759092</v>
+        <v>1.453195165447792</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.368902516843698</v>
+        <v>1.351391790973874</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.391780013296972</v>
+        <v>1.607024492112901</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.63875795926062</v>
+        <v>1.428894128901645</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.386080125274599</v>
+        <v>1.731174260919076</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.541607176794177</v>
+        <v>1.525830874670005</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.490376498163335</v>
+        <v>1.398288569924089</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.628451318188898</v>
+        <v>1.623079063269458</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.718075596489476</v>
+        <v>1.671365477508384</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.330389162089761</v>
+        <v>1.365628203691756</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.684662282770986</v>
+        <v>1.346908671822857</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.687955422153142</v>
+        <v>1.164775072781492</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.249888630517567</v>
+        <v>1.780668771990363</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.419837709110038</v>
+        <v>1.230911369457253</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.65076003225895</v>
+        <v>1.473236694638491</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.539447066435093</v>
+        <v>1.295258828473098</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.583649122791788</v>
+        <v>1.288006695158824</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1.584310728460852</v>
+        <v>1.576508650562163</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.603814107940008</v>
+        <v>1.437167404315304</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.379828274237467</v>
+        <v>1.577111648187906</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.566620877797631</v>
+        <v>1.324779334404576</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.596875577046791</v>
+        <v>1.542250874488901</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.525561526224985</v>
+        <v>1.53887192606076</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.323577244776914</v>
+        <v>1.320218788860877</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.498573510193018</v>
+        <v>1.644948012814947</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.457157346739925</v>
+        <v>1.559023169519252</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.648763145500824</v>
+        <v>1.272375540278684</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.53142958781647</v>
+        <v>1.419360972897691</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.18733532062662</v>
+        <v>1.566281004508592</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.613754728365122</v>
+        <v>1.3716403548182</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.787861699053966</v>
+        <v>1.449493184261585</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.384340812881393</v>
+        <v>1.728196055455037</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.632051342189912</v>
+        <v>1.638517818506546</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.652173441643113</v>
+        <v>1.219120751925439</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.42634401252884</v>
+        <v>1.55739303056945</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.541802919537208</v>
+        <v>1.213902015362593</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.462351643027272</v>
+        <v>1.754957507361107</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.645805851006256</v>
+        <v>1.629477349300499</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.334658172387482</v>
+        <v>1.770275366519127</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.562186885518995</v>
+        <v>1.339849279495382</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.52717761982231</v>
+        <v>1.404307325156824</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.613669589335866</v>
+        <v>1.429122548092537</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.582645873274369</v>
+        <v>1.451449296826169</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.603366174318633</v>
+        <v>1.40552029186534</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.456726094341044</v>
+        <v>1.581587481733765</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.206126923985048</v>
+        <v>1.450132281382199</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.368898999779718</v>
+        <v>1.91669397490807</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.470308971685244</v>
+        <v>1.553853722372028</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.2029018377087</v>
+        <v>1.200656243330404</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.558712821791603</v>
+        <v>1.76927212662985</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.562610414980159</v>
+        <v>1.422469708277472</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.432462073583354</v>
+        <v>1.444484339858831</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.811891852510286</v>
+        <v>1.455191923977762</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.471885801461862</v>
+        <v>1.655255764304334</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.555621276251374</v>
+        <v>1.676870758745244</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.440111118376517</v>
+        <v>1.698050993909477</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.509713341352446</v>
+        <v>1.60939105555109</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.396669547552374</v>
+        <v>1.416915077022846</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.228750163641941</v>
+        <v>1.600867953154276</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.461786022651518</v>
+        <v>1.42943288716764</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.389584109468972</v>
+        <v>1.381049161840739</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.419464554135561</v>
+        <v>1.517652262982077</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.622386685832747</v>
+        <v>1.295725634804477</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.506655600133612</v>
+        <v>1.274957967746622</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.613745672848095</v>
+        <v>1.368117068772193</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.143830391085662</v>
+        <v>1.282924224370535</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.626392973226628</v>
+        <v>1.336669611524829</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.647605549619274</v>
+        <v>1.289091732805514</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.506578080764867</v>
+        <v>1.55450986609449</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.616253173499072</v>
+        <v>1.447613515509216</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1.592672600299569</v>
+        <v>1.677371799231591</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.542591013595707</v>
+        <v>1.286737604124612</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.51095065067515</v>
+        <v>1.263740803199953</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.493479691854468</v>
+        <v>1.548969738373562</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.419447343295474</v>
+        <v>1.510140792394769</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.428230351523639</v>
+        <v>1.271786848813582</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.665783098975554</v>
+        <v>1.493348272649111</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.625222959103114</v>
+        <v>1.204590313710172</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.718372481770294</v>
+        <v>1.503163010959729</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>1.450661019975525</v>
+        <v>1.6753119707392</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.54885584146375</v>
+        <v>1.493905126292527</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.521466356755465</v>
+        <v>1.45292182677041</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.240563510537599</v>
+        <v>1.488828092680882</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.486448283903217</v>
+        <v>1.41813628959995</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.577464366472099</v>
+        <v>1.796574107505758</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.878921730350501</v>
+        <v>1.637094044554269</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.646754376708787</v>
+        <v>1.395226867355533</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.521254391861719</v>
+        <v>1.543099559037698</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.510887494442032</v>
+        <v>1.682590500639616</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.629996782342733</v>
+        <v>1.485986817983395</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.326291285892767</v>
+        <v>1.409188479720921</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.453226011007821</v>
+        <v>1.539391186633584</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.667091769995698</v>
+        <v>1.779346792061649</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.411661615725016</v>
+        <v>1.443004305763064</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.25664333725537</v>
+        <v>1.482431921920305</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.386694614905498</v>
+        <v>1.320201797722269</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.357033993244213</v>
+        <v>1.673541195262235</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.41915637246298</v>
+        <v>1.649844816544345</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.61718352191524</v>
+        <v>1.668936248709688</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.810025270837224</v>
+        <v>1.432786180023712</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.357330875886961</v>
+        <v>1.552254334124828</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.68325509347169</v>
+        <v>1.585644341707668</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.837845582894356</v>
+        <v>1.353661142517408</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.430561655849276</v>
+        <v>1.613698649429561</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.481934933619105</v>
+        <v>1.485939067382902</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.418985242429151</v>
+        <v>1.60300552234653</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.140892754374535</v>
+        <v>1.485126886762399</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.43353427073874</v>
+        <v>1.804930336766298</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.483988451105138</v>
+        <v>1.549910336747515</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.545753750757286</v>
+        <v>1.337477340016856</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.706775742825982</v>
+        <v>1.508256905554447</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.465600544985818</v>
+        <v>1.60327455064549</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.740951235078054</v>
+        <v>1.304382283097435</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.596300176342443</v>
+        <v>1.454843359358874</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.491976481726039</v>
+        <v>1.373441081598354</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.49455698928319</v>
+        <v>1.375941677883001</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.722972004093821</v>
+        <v>1.234018658080723</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.254186875014453</v>
+        <v>1.461082656541295</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.744256886445194</v>
+        <v>1.48383240577354</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.467577926520231</v>
+        <v>1.355918783907863</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.588779705472623</v>
+        <v>1.577058218353816</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.5793590144845</v>
+        <v>1.368282796846035</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.502471102054618</v>
+        <v>1.546808261054923</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.513636038678151</v>
+        <v>1.44612195718118</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.422822655360032</v>
+        <v>1.69968487104387</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.031300230578308</v>
+        <v>1.458739448951518</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.751308323980781</v>
+        <v>1.434802062396033</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.456269218705594</v>
+        <v>1.411949319674661</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.626277105156967</v>
+        <v>1.25613509951257</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.659759707153102</v>
+        <v>1.449522171994188</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.401536444046674</v>
+        <v>1.717360536105166</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.702603624424301</v>
+        <v>1.492444154802661</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.412620099803884</v>
+        <v>1.62182360128798</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.586006188442352</v>
+        <v>1.528957703546669</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.393207839652872</v>
+        <v>1.637887337414438</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.500248711257335</v>
+        <v>1.36092085413592</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.568802645780052</v>
+        <v>1.606411625454816</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.38408966322393</v>
+        <v>1.311368949433234</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.230657665310521</v>
+        <v>1.547570627787897</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.495190650517824</v>
+        <v>1.696859519375104</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.577492339628318</v>
+        <v>1.54795181729644</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.187824025056192</v>
+        <v>1.580191935292148</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.549076550702153</v>
+        <v>1.53384267391256</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.41050271710754</v>
+        <v>1.815701997054288</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.631887044587721</v>
+        <v>1.42183057234006</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.340834184013015</v>
+        <v>1.270270201907594</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.540898973270427</v>
+        <v>1.32866111635299</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.385411197780344</v>
+        <v>1.561025151957449</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.74529256709557</v>
+        <v>1.587467212039747</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.650255133083543</v>
+        <v>1.815127347081882</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.601803128639981</v>
+        <v>1.626179942002516</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.428300040702926</v>
+        <v>1.384287298159298</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.376682948947408</v>
+        <v>1.434610679320177</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.651269974365017</v>
+        <v>1.761126912553639</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.393682196194838</v>
+        <v>1.345808612665635</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.354238115002417</v>
+        <v>1.385350120699708</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.428814461713702</v>
+        <v>1.389302036873842</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.550403023325313</v>
+        <v>1.196542654125423</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.187642394013912</v>
+        <v>1.504777031088214</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.651026549800872</v>
+        <v>1.570214280133618</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.505971060752291</v>
+        <v>1.285866193300381</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.517582301976421</v>
+        <v>1.628549503125531</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.523204723360772</v>
+        <v>1.577849008420978</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.284713326927112</v>
+        <v>1.493431523328585</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.253383955893798</v>
+        <v>1.41421461199893</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.543859862298694</v>
+        <v>1.367310772102353</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.635973743066108</v>
+        <v>1.714475645967761</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.403161625452284</v>
+        <v>1.434021712397917</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.580548010974642</v>
+        <v>1.289370395672145</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.554823036139335</v>
+        <v>1.301218756665111</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.562068779975846</v>
+        <v>1.549226160976389</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.672585595185617</v>
+        <v>1.45911747817925</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.399695915516139</v>
+        <v>1.693227634412352</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.334930406406774</v>
+        <v>1.200248784330751</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.065099707038071</v>
+        <v>1.422552539257274</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.661701091873334</v>
+        <v>1.221081039970248</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.597912623155905</v>
+        <v>1.241858134468374</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.39991054841263</v>
+        <v>1.959110777856069</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.50041943338149</v>
+        <v>1.253073074582441</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.684663251704915</v>
+        <v>1.543523894605315</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>1.612619663364947</v>
+        <v>1.595697271793111</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.244878719789301</v>
+        <v>1.553928521797671</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.63608234426253</v>
+        <v>1.434430290566896</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.289905638906913</v>
+        <v>1.235194636593866</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.595732798073577</v>
+        <v>1.38477551921304</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.69220022723613</v>
+        <v>1.355512232858747</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.659886693531452</v>
+        <v>1.591359722500526</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.413968734631731</v>
+        <v>1.638498186128926</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.590449342448808</v>
+        <v>1.437146785282267</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.544829976139394</v>
+        <v>1.606302674428502</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.426804684351938</v>
+        <v>1.504915096595136</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.541923995758703</v>
+        <v>1.46939478274251</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.572618919023418</v>
+        <v>1.480055821452583</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.373903890677123</v>
+        <v>1.587189482288102</v>
       </c>
     </row>
   </sheetData>
